--- a/12CPPopenCV/cv01Test/PP_Base.xlsx
+++ b/12CPPopenCV/cv01Test/PP_Base.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="right" sheetId="1" r:id="rId1"/>
     <sheet name="left" sheetId="2" r:id="rId2"/>
-    <sheet name="right0508" sheetId="3" r:id="rId3"/>
+    <sheet name="left0620" sheetId="4" r:id="rId3"/>
+    <sheet name="right0508" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>white_left</t>
   </si>
@@ -103,6 +104,18 @@
   </si>
   <si>
     <t>1_0</t>
+  </si>
+  <si>
+    <t>black_0019146_CM1</t>
+  </si>
+  <si>
+    <t>black_0019146_CM2</t>
+  </si>
+  <si>
+    <t>black_0019146_CM3</t>
+  </si>
+  <si>
+    <t>black_0019146_CM4</t>
   </si>
   <si>
     <t>gray_0019610_CM1</t>
@@ -2758,8 +2771,1111 @@
   <sheetPr/>
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.9814814814815" customWidth="1"/>
+    <col min="2" max="2" width="13.1759259259259" customWidth="1"/>
+    <col min="3" max="30" width="6.19444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
+        <v>1260</v>
+      </c>
+      <c r="C3" s="5">
+        <v>500</v>
+      </c>
+      <c r="D3" s="5">
+        <v>630</v>
+      </c>
+      <c r="E3" s="5">
+        <v>840</v>
+      </c>
+      <c r="F3" s="5">
+        <v>920</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1110</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2150</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>820</v>
+      </c>
+      <c r="N3" s="5">
+        <v>960</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1640</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1800</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>500</v>
+      </c>
+      <c r="R3" s="5">
+        <v>700</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1300</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5">
+        <v>250</v>
+      </c>
+      <c r="X3" s="5">
+        <v>420</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1200</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1480</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1560</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>450</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>1430</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1430</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2250</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
+        <v>2448</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>2448</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>210</v>
+      </c>
+      <c r="D6" s="4">
+        <v>510</v>
+      </c>
+      <c r="E6" s="4">
+        <v>620</v>
+      </c>
+      <c r="F6" s="4">
+        <v>810</v>
+      </c>
+      <c r="G6" s="4">
+        <v>890</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1050</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1780</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>300</v>
+      </c>
+      <c r="N6" s="4">
+        <v>900</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1700</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>300</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1100</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1800</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <v>380</v>
+      </c>
+      <c r="X6" s="4">
+        <v>610</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1770</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1850</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1085</v>
+      </c>
+      <c r="C7" s="7">
+        <v>260</v>
+      </c>
+      <c r="D7" s="7">
+        <v>460</v>
+      </c>
+      <c r="E7" s="7">
+        <v>670</v>
+      </c>
+      <c r="F7" s="7">
+        <v>760</v>
+      </c>
+      <c r="G7" s="7">
+        <v>940</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1830</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1960</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
+        <v>550</v>
+      </c>
+      <c r="N7" s="7">
+        <v>650</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1370</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1450</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>610</v>
+      </c>
+      <c r="R7" s="7">
+        <v>720</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1430</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1520</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7">
+        <v>430</v>
+      </c>
+      <c r="X7" s="7">
+        <v>560</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1370</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>1450</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>1610</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1720</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1900</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>340</v>
+      </c>
+      <c r="D20" s="4">
+        <v>630</v>
+      </c>
+      <c r="E20" s="4">
+        <v>750</v>
+      </c>
+      <c r="F20" s="4">
+        <v>930</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1020</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1170</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1880</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2110</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>600</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1200</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1300</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>900</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1600</v>
+      </c>
+      <c r="U20" s="11">
+        <v>1700</v>
+      </c>
+      <c r="V20" s="4">
+        <v>2440</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <v>600</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>1300</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>1730</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>1830</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1200</v>
+      </c>
+      <c r="C21" s="7">
+        <v>390</v>
+      </c>
+      <c r="D21" s="7">
+        <v>580</v>
+      </c>
+      <c r="E21" s="7">
+        <v>800</v>
+      </c>
+      <c r="F21" s="7">
+        <v>880</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1070</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1120</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1930</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2060</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
+        <v>890</v>
+      </c>
+      <c r="N21" s="7">
+        <v>960</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1670</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1770</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>450</v>
+      </c>
+      <c r="R21" s="7">
+        <v>570</v>
+      </c>
+      <c r="S21" s="7">
+        <v>1260</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1330</v>
+      </c>
+      <c r="U21" s="7">
+        <v>2000</v>
+      </c>
+      <c r="V21" s="7">
+        <v>2140</v>
+      </c>
+      <c r="W21" s="7">
+        <v>430</v>
+      </c>
+      <c r="X21" s="7">
+        <v>550</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>1350</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>1420</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>1590</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1680</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>1880</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3145,7 +4261,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7">
         <v>1320</v>
@@ -3574,7 +4690,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7">
         <v>1260</v>
@@ -3888,7 +5004,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" s="7">
         <v>1470</v>
@@ -4117,7 +5233,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7">
         <v>1345</v>
